--- a/biology/Botanique/Presse-motte/Presse-motte.xlsx
+++ b/biology/Botanique/Presse-motte/Presse-motte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le presse-motte est un outil de maraîchage permettant de former des blocs de terreau dans lesquels sont démarrés les semis.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Eliot Coleman, la technique de semer dans des blocs de terreau compactés, aurait plus de 2000 ans et remonterait à l'époque de l'horticulture aztèque, bien que l'outil se soit développé principalement depuis 100 ans en Europe[1].  Un ingénieur britannique, Michael Ladbrooke, est à l'origine du premier presse-motte manuel qui a été manufacturé, puis le fermier, chercheur et auteur américain Eliot Coleman a retravaillé l'invention de Ladbrooke pour créer  lui-même plusieurs modèles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Eliot Coleman, la technique de semer dans des blocs de terreau compactés, aurait plus de 2000 ans et remonterait à l'époque de l'horticulture aztèque, bien que l'outil se soit développé principalement depuis 100 ans en Europe.  Un ingénieur britannique, Michael Ladbrooke, est à l'origine du premier presse-motte manuel qui a été manufacturé, puis le fermier, chercheur et auteur américain Eliot Coleman a retravaillé l'invention de Ladbrooke pour créer  lui-même plusieurs modèles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mottes sont utilisées en remplacements des plateaux de semis[3],[4],[2], [5], [6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mottes sont utilisées en remplacements des plateaux de semis , .
 </t>
         </is>
       </c>
